--- a/Excel/auth_64/main/03/s09/cmn.xlsx
+++ b/Excel/auth_64/main/03/s09/cmn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>OFFSET</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>What do you want with Kazuki-san!?</t>
+  </si>
+  <si>
+    <t>O que você quer com o Kazuki-san!?</t>
   </si>
   <si>
     <t>Listen up...</t>
@@ -182,7 +185,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,7 +451,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -456,7 +462,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -467,7 +473,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -478,7 +484,7 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -489,7 +495,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -500,7 +506,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -511,7 +517,7 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -522,7 +528,7 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -533,7 +539,7 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -544,7 +550,7 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -555,7 +561,7 @@
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -566,8 +572,8 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -575,10 +581,10 @@
         <v>157640.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -586,10 +592,10 @@
         <v>157912.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -597,10 +603,10 @@
         <v>158184.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -608,10 +614,10 @@
         <v>158456.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -619,10 +625,10 @@
         <v>158728.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -630,10 +636,10 @@
         <v>159000.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -641,10 +647,10 @@
         <v>159272.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -652,10 +658,10 @@
         <v>159544.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -663,10 +669,10 @@
         <v>159816.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -674,10 +680,10 @@
         <v>160088.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -685,10 +691,10 @@
         <v>160360.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -696,10 +702,10 @@
         <v>160632.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
